--- a/DemoSheet.xlsx
+++ b/DemoSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Essentials\DataScienceProj\InequalityATCI\employee-churn-notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C628B035-80D6-489B-8A54-0D7B4176ACD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83AA8F-1C92-4E1C-ABEE-43C9A3BFDBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Frequently</t>
   </si>
   <si>
-    <t>Executive Sales</t>
-  </si>
-  <si>
     <t>Attrition(Will Churn)</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Default values</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L2" s="3">
         <v>3</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="3">
-        <v>4614</v>
+        <v>46144</v>
       </c>
       <c r="O2" s="3">
         <v>2</v>
@@ -817,7 +817,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L3" s="5">
         <v>4</v>
@@ -850,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="5">
-        <v>9980</v>
+        <v>99800</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5">
         <v>20</v>
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="5">
         <v>4</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
